--- a/csv/JLim_UpdatedGantt-FINAL.xlsx
+++ b/csv/JLim_UpdatedGantt-FINAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\capstone proposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\GitHub\Capstone\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9AE7246-6F61-489E-972A-4EB3234AD179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB800B-3F26-4F82-B007-EEF9183FF955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TASK NAME</t>
   </si>
@@ -39,9 +39,6 @@
     <t>END DATE</t>
   </si>
   <si>
-    <t>TEAM MEMBER</t>
-  </si>
-  <si>
     <t>PERCENT COMPLETE</t>
   </si>
   <si>
@@ -58,21 +55,6 @@
   </si>
   <si>
     <t>First Sample Project</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>Meredith</t>
-  </si>
-  <si>
-    <t>Brandon</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Rachel</t>
   </si>
   <si>
     <t>* = an automatically calculated cell</t>
@@ -500,7 +482,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -571,7 +553,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -735,7 +717,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>717316</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>188148</xdr:rowOff>
@@ -772,8 +754,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>223962</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>159286</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
@@ -1119,26 +1101,26 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="14" width="3.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="34" width="4.42578125" customWidth="1"/>
-    <col min="35" max="36" width="7.28515625" customWidth="1"/>
+    <col min="3" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="13" width="3.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" customWidth="1"/>
+    <col min="15" max="33" width="4.42578125" customWidth="1"/>
+    <col min="34" max="35" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="78.599999999999994" customHeight="1">
+    <row r="1" spans="1:35" ht="78.599999999999994" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1148,14 +1130,14 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -1174,9 +1156,8 @@
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
     </row>
-    <row r="2" spans="1:36" ht="12.75">
+    <row r="2" spans="1:35" ht="12.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1186,14 +1167,14 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -1212,12 +1193,11 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
     </row>
-    <row r="3" spans="1:36" ht="33.75">
+    <row r="3" spans="1:35" ht="33.75">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1225,15 +1205,15 @@
       <c r="F3" s="9"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -1250,11 +1230,10 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
+      <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:36" ht="15.75" customHeight="1">
+    <row r="4" spans="1:35" ht="15.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1269,7 +1248,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -1290,11 +1269,10 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" ht="15.75" customHeight="1">
+    <row r="5" spans="1:35" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1307,7 +1285,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1328,9 +1306,8 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36" ht="15">
+    <row r="6" spans="1:35" ht="15">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
         <v>0</v>
@@ -1339,62 +1316,59 @@
         <v>1</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="33" t="s">
-        <v>5</v>
-      </c>
+      <c r="O6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
       <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="32" t="s">
-        <v>6</v>
-      </c>
+      <c r="T6" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="31"/>
       <c r="V6" s="31"/>
       <c r="W6" s="31"/>
       <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="Y6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="31"/>
       <c r="AA6" s="31"/>
       <c r="AB6" s="31"/>
       <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="32" t="s">
-        <v>8</v>
-      </c>
+      <c r="AD6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="31"/>
       <c r="AF6" s="31"/>
       <c r="AG6" s="31"/>
       <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="12"/>
+      <c r="AI6" s="12"/>
     </row>
-    <row r="7" spans="1:36" ht="15">
+    <row r="7" spans="1:35" ht="15">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -1403,38 +1377,37 @@
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="12"/>
       <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:35">
       <c r="A8" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1444,11 +1417,11 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -1470,11 +1443,10 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
     </row>
-    <row r="9" spans="1:36" ht="15">
+    <row r="9" spans="1:35" ht="15">
       <c r="B9" s="18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" s="25">
         <v>43899</v>
@@ -1491,19 +1463,17 @@
         <v>8</v>
       </c>
       <c r="G9" s="21">
-        <f>SUM(F9*J9)</f>
-        <v>4</v>
+        <f>SUM(F9*I9)</f>
+        <v>8</v>
       </c>
       <c r="H9" s="29">
         <f>SUM(F9-G9)</f>
-        <v>4</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1529,11 +1499,10 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:36" ht="15">
+    <row r="10" spans="1:35" ht="15">
       <c r="B10" s="18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C10" s="25">
         <v>43913</v>
@@ -1550,19 +1519,17 @@
         <v>8</v>
       </c>
       <c r="G10" s="21">
-        <f>SUM(F10*J10)</f>
+        <f>SUM(F10*I10)</f>
         <v>0</v>
       </c>
       <c r="H10" s="29">
         <f t="shared" ref="H10:H13" si="2">SUM(F10-G10)</f>
         <v>8</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="22">
+      <c r="I10" s="22">
         <v>0</v>
       </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1588,11 +1555,10 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" ht="15">
+    <row r="11" spans="1:35" ht="15">
       <c r="B11" s="18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11" s="25">
         <v>43920</v>
@@ -1609,19 +1575,17 @@
         <v>8</v>
       </c>
       <c r="G11" s="21">
-        <f>SUM(F11*J11)</f>
+        <f>SUM(F11*I11)</f>
         <v>0</v>
       </c>
       <c r="H11" s="29">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="20">
+      <c r="I11" s="20">
         <v>0</v>
       </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1647,11 +1611,10 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="1:36" ht="15">
+    <row r="12" spans="1:35" ht="15">
       <c r="B12" s="18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12" s="25">
         <v>43927</v>
@@ -1668,23 +1631,20 @@
         <v>8</v>
       </c>
       <c r="G12" s="21">
-        <f>SUM(F12*J12)</f>
+        <f>SUM(F12*I12)</f>
         <v>0</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="23">
+      <c r="I12" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15">
+    <row r="13" spans="1:35" ht="15">
       <c r="B13" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" s="25">
         <v>43934</v>
@@ -1701,21 +1661,18 @@
         <v>8</v>
       </c>
       <c r="G13" s="21">
-        <f>SUM(F13*J13)</f>
+        <f>SUM(F13*I13)</f>
         <v>0</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="24">
+      <c r="I13" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15.75" customHeight="1">
+    <row r="14" spans="1:35" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1725,9 +1682,8 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:36" ht="15.75" customHeight="1">
+    <row r="15" spans="1:35" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1737,9 +1693,8 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:36" ht="15.75" customHeight="1">
+    <row r="16" spans="1:35" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1749,7 +1704,6 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
     </row>
     <row r="20" ht="12.75"/>
     <row r="21" ht="12.75"/>
@@ -1767,15 +1721,14 @@
     <row r="33" ht="12.75"/>
     <row r="34" ht="12.75"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="AD6:AH6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:S6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -1784,7 +1737,7 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
   </mergeCells>
-  <conditionalFormatting sqref="J9:J13">
+  <conditionalFormatting sqref="I9:I13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="percent" val="0"/>

--- a/csv/JLim_UpdatedGantt-FINAL.xlsx
+++ b/csv/JLim_UpdatedGantt-FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\GitHub\Capstone\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB800B-3F26-4F82-B007-EEF9183FF955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDED87D-9044-4484-87EA-0BBBE9BC64B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -556,7 +556,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1520,14 +1520,14 @@
       </c>
       <c r="G10" s="21">
         <f>SUM(F10*I10)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H10" s="29">
         <f t="shared" ref="H10:H13" si="2">SUM(F10-G10)</f>
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="I10" s="22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1722,6 +1722,13 @@
     <row r="34" ht="12.75"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="AD6:AH6"/>
@@ -1729,13 +1736,6 @@
     <mergeCell ref="T6:X6"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="O6:S6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I13">
     <cfRule type="colorScale" priority="2">

--- a/csv/JLim_UpdatedGantt-FINAL.xlsx
+++ b/csv/JLim_UpdatedGantt-FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\GitHub\Capstone\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDED87D-9044-4484-87EA-0BBBE9BC64B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08065E2A-25F9-4C3B-BE0B-01A64915F10A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,16 +78,16 @@
     <t>Create function to handle multi-kicks</t>
   </si>
   <si>
-    <t>Use mutiple sensor to collect data</t>
-  </si>
-  <si>
     <t>Output all kicking data in Python</t>
   </si>
   <si>
-    <t>Test with other users and create video</t>
-  </si>
-  <si>
     <t>Capston Project Taekowndo Motion tracker</t>
+  </si>
+  <si>
+    <t>Test with other users and final report</t>
+  </si>
+  <si>
+    <t>Create export report of all kicks</t>
   </si>
 </sst>
 </file>
@@ -393,13 +393,13 @@
                   <c:v>Create function to handle multi-kicks</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Use mutiple sensor to collect data</c:v>
+                  <c:v>Create export report of all kicks</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Output all kicking data in Python</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Test with other users and create video</c:v>
+                  <c:v>Test with other users and final report</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -464,13 +464,13 @@
                   <c:v>Create function to handle multi-kicks</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Use mutiple sensor to collect data</c:v>
+                  <c:v>Create export report of all kicks</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Output all kicking data in Python</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Test with other users and create video</c:v>
+                  <c:v>Test with other users and final report</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -485,13 +485,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -535,13 +535,13 @@
                   <c:v>Create function to handle multi-kicks</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Use mutiple sensor to collect data</c:v>
+                  <c:v>Create export report of all kicks</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Output all kicking data in Python</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Test with other users and create video</c:v>
+                  <c:v>Test with other users and final report</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -556,13 +556,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6.4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8</c:v>
@@ -1103,8 +1103,8 @@
   </sheetPr>
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1197,7 +1197,7 @@
     <row r="3" spans="1:35" ht="33.75">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1520,14 +1520,14 @@
       </c>
       <c r="G10" s="21">
         <f>SUM(F10*I10)</f>
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H10" s="29">
         <f t="shared" ref="H10:H13" si="2">SUM(F10-G10)</f>
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="I10" s="22">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="11" spans="1:35" ht="15">
       <c r="B11" s="18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="25">
         <v>43920</v>
@@ -1576,14 +1576,14 @@
       </c>
       <c r="G11" s="21">
         <f>SUM(F11*I11)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H11" s="29">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="I11" s="20">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="12" spans="1:35" ht="15">
       <c r="B12" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="25">
         <v>43927</v>
@@ -1632,14 +1632,14 @@
       </c>
       <c r="G12" s="21">
         <f>SUM(F12*I12)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I12" s="23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15">
@@ -1722,6 +1722,13 @@
     <row r="34" ht="12.75"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="AD6:AH6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:S6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -1729,13 +1736,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="AD6:AH6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:S6"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I13">
     <cfRule type="colorScale" priority="2">

--- a/csv/JLim_UpdatedGantt-FINAL.xlsx
+++ b/csv/JLim_UpdatedGantt-FINAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\GitHub\Capstone\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08065E2A-25F9-4C3B-BE0B-01A64915F10A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E2A107-F131-4F48-B38D-94973D794A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,16 +485,16 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,16 +556,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1520,14 +1520,14 @@
       </c>
       <c r="G10" s="21">
         <f>SUM(F10*I10)</f>
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="H10" s="29">
         <f t="shared" ref="H10:H13" si="2">SUM(F10-G10)</f>
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="22">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1576,14 +1576,14 @@
       </c>
       <c r="G11" s="21">
         <f>SUM(F11*I11)</f>
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="H11" s="29">
         <f t="shared" si="2"/>
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="20">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1662,14 +1662,14 @@
       </c>
       <c r="G13" s="21">
         <f>SUM(F13*I13)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I13" s="24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="15.75" customHeight="1">
@@ -1722,6 +1722,13 @@
     <row r="34" ht="12.75"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="AD6:AH6"/>
@@ -1729,13 +1736,6 @@
     <mergeCell ref="T6:X6"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="O6:S6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I13">
     <cfRule type="colorScale" priority="2">

--- a/csv/JLim_UpdatedGantt-FINAL.xlsx
+++ b/csv/JLim_UpdatedGantt-FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\GitHub\Capstone\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E2A107-F131-4F48-B38D-94973D794A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BC512C-FFD2-4C31-8B5F-7011F947FB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>TASK NAME</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Create export report of all kicks</t>
+  </si>
+  <si>
+    <t>Increase accracy of the test set</t>
   </si>
 </sst>
 </file>
@@ -491,10 +494,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,10 +565,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>1.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,7 +1107,7 @@
   <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1452,7 +1455,7 @@
         <v>43899</v>
       </c>
       <c r="D9" s="19">
-        <f t="shared" ref="D9:D13" si="0">DAY(C9)</f>
+        <f t="shared" ref="D9:D14" si="0">DAY(C9)</f>
         <v>9</v>
       </c>
       <c r="E9" s="26">
@@ -1515,7 +1518,7 @@
         <v>43920</v>
       </c>
       <c r="F10" s="28">
-        <f t="shared" ref="F10:F13" si="1">DATEDIF(C10,E10,"d")+1</f>
+        <f t="shared" ref="F10:F14" si="1">DATEDIF(C10,E10,"d")+1</f>
         <v>8</v>
       </c>
       <c r="G10" s="21">
@@ -1523,7 +1526,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="29">
-        <f t="shared" ref="H10:H13" si="2">SUM(F10-G10)</f>
+        <f t="shared" ref="H10:H14" si="2">SUM(F10-G10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="22">
@@ -1632,14 +1635,14 @@
       </c>
       <c r="G12" s="21">
         <f>SUM(F12*I12)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12" s="23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15">
@@ -1662,26 +1665,46 @@
       </c>
       <c r="G13" s="21">
         <f>SUM(F13*I13)</f>
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="I13" s="24">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="25">
+        <v>43941</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E14" s="26">
+        <v>43948</v>
+      </c>
+      <c r="F14" s="28">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="21">
+        <f>SUM(F14*I14)</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="29">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I14" s="24">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:35" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
@@ -1722,6 +1745,13 @@
     <row r="34" ht="12.75"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="AD6:AH6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:S6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -1729,15 +1759,8 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="AD6:AH6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:S6"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:I13">
+  <conditionalFormatting sqref="I9:I14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -1748,7 +1771,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C9:C13 E9:E13" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C9:C14 E9:E14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(C9))), AND(ISNUMBER(C9), LEFT(CELL("format", C9))="D"))</formula1>
     </dataValidation>
   </dataValidations>

--- a/csv/JLim_UpdatedGantt-FINAL.xlsx
+++ b/csv/JLim_UpdatedGantt-FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\GitHub\Capstone\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BC512C-FFD2-4C31-8B5F-7011F947FB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEF70A5-624F-45F2-86B2-B96D49EF38AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1466,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="21">
-        <f>SUM(F9*I9)</f>
+        <f t="shared" ref="G9:G14" si="1">SUM(F9*I9)</f>
         <v>8</v>
       </c>
       <c r="H9" s="29">
@@ -1518,15 +1518,15 @@
         <v>43920</v>
       </c>
       <c r="F10" s="28">
-        <f t="shared" ref="F10:F14" si="1">DATEDIF(C10,E10,"d")+1</f>
+        <f t="shared" ref="F10:F14" si="2">DATEDIF(C10,E10,"d")+1</f>
         <v>8</v>
       </c>
       <c r="G10" s="21">
-        <f>SUM(F10*I10)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H10" s="29">
-        <f t="shared" ref="H10:H14" si="2">SUM(F10-G10)</f>
+        <f t="shared" ref="H10:H14" si="3">SUM(F10-G10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="22">
@@ -1574,15 +1574,15 @@
         <v>43927</v>
       </c>
       <c r="F11" s="28">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="21">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G11" s="21">
-        <f>SUM(F11*I11)</f>
-        <v>8</v>
-      </c>
       <c r="H11" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="20">
@@ -1630,15 +1630,15 @@
         <v>43934</v>
       </c>
       <c r="F12" s="28">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="21">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G12" s="21">
-        <f>SUM(F12*I12)</f>
-        <v>8</v>
-      </c>
       <c r="H12" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12" s="23">
@@ -1660,15 +1660,15 @@
         <v>43941</v>
       </c>
       <c r="F13" s="28">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G13" s="21">
-        <f>SUM(F13*I13)</f>
         <v>6.4</v>
       </c>
       <c r="H13" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="I13" s="24">
@@ -1691,19 +1691,19 @@
         <v>43948</v>
       </c>
       <c r="F14" s="28">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="21">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G14" s="21">
-        <f>SUM(F14*I14)</f>
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="H14" s="29">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I14" s="24">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="15.75" customHeight="1">
@@ -1745,6 +1745,13 @@
     <row r="34" ht="12.75"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="AD6:AH6"/>
@@ -1752,13 +1759,6 @@
     <mergeCell ref="T6:X6"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="O6:S6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I14">
     <cfRule type="colorScale" priority="2">

--- a/csv/JLim_UpdatedGantt-FINAL.xlsx
+++ b/csv/JLim_UpdatedGantt-FINAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\GitHub\Capstone\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEF70A5-624F-45F2-86B2-B96D49EF38AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FB57CF-B1EB-4BC2-96F0-0DDCFA2FE0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,7 +497,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -568,7 +568,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5999999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1665,14 +1665,14 @@
       </c>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" si="3"/>
-        <v>1.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="I13" s="24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="15.75" customHeight="1">
@@ -1696,14 +1696,14 @@
       </c>
       <c r="G14" s="21">
         <f t="shared" si="1"/>
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="H14" s="29">
         <f t="shared" si="3"/>
-        <v>1.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="I14" s="24">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="15.75" customHeight="1">
@@ -1745,6 +1745,13 @@
     <row r="34" ht="12.75"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="AD6:AH6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:S6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -1752,13 +1759,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="AD6:AH6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:S6"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:I14">
     <cfRule type="colorScale" priority="2">
